--- a/pred_ohlcv/54_21/2020-01-12 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3428.250085379999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2879.407685379999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2919.407685379999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3027.407685379999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3071.407685379999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3069.489085379999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3069.489085379999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4066.133685379999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3568.817285379999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3569.017285379999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4038.817285379999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4049.394485379999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3927.486585379999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3426.838785379999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3427.338785379999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3357.338785379999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3357.338785379999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3250.051585379999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3325.691285379999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3235.691285379999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3235.691285379999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>202.5082853799993</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-73.92721462000073</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3428.250085379999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2919.407685379999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3071.407685379999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3069.489085379999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3069.489085379999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4066.133685379999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3420.583385379999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3568.817285379999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3569.017285379999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4038.817285379999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3927.486585379999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3357.338785379999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3249.051585379999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3250.051585379999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3325.691285379999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3235.691285379999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3235.691285379999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>202.5082853799993</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-73.92721462000073</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-803.7814235800004</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-803.2814235800004</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
